--- a/downloads/format_oscrms_mt.xlsx
+++ b/downloads/format_oscrms_mt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
   <si>
     <t>NO</t>
   </si>
@@ -259,7 +259,31 @@
     <t>50</t>
   </si>
   <si>
-    <t>(OK/TIDAK)</t>
+    <t>D9009AW</t>
+  </si>
+  <si>
+    <t>bzbcub</t>
+  </si>
+  <si>
+    <t>bubsu</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>nsdnisd</t>
+  </si>
+  <si>
+    <t>Masoe</t>
+  </si>
+  <si>
+    <t>Sewa</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Steel</t>
   </si>
 </sst>
 </file>
@@ -853,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -976,10 +1000,10 @@
         <v>21</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>22</v>
@@ -1052,22 +1076,54 @@
       <c r="A3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>4</v>
+      </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
